--- a/Results/Ghosts_invisible_in_walls/Ghosts_invisible_results.xlsx
+++ b/Results/Ghosts_invisible_in_walls/Ghosts_invisible_results.xlsx
@@ -57,7 +57,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -274,10 +274,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0326828"/>
-          <c:y val="0.067933"/>
-          <c:w val="0.962317"/>
-          <c:h val="0.890191"/>
+          <c:x val="0.0376653"/>
+          <c:y val="0.0459956"/>
+          <c:w val="0.955745"/>
+          <c:h val="0.897412"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2082,6 +2082,35 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>No of Ghosts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2133,8 +2162,37 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Survivability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2161,8 +2219,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25"/>
-        <c:minorUnit val="12.5"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2179,10 +2237,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0509016"/>
+          <c:x val="0.0664831"/>
           <c:y val="0"/>
-          <c:w val="0.916229"/>
-          <c:h val="0.0464579"/>
+          <c:w val="0.901187"/>
+          <c:h val="0.0419384"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2199,7 +2257,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2226,16 +2284,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355294</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>281575</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>116024</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>247656</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>140650</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2244,10 +2302,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3822700" y="-1"/>
-          <a:ext cx="11076576" cy="7347405"/>
-          <a:chOff x="-362013" y="-471220"/>
-          <a:chExt cx="11076575" cy="7347403"/>
+          <a:off x="3542994" y="-1"/>
+          <a:ext cx="17037363" cy="10682286"/>
+          <a:chOff x="-641718" y="-471220"/>
+          <a:chExt cx="17037361" cy="10682284"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame>
@@ -2256,8 +2314,8 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="-362014" y="-471221"/>
-          <a:ext cx="11076576" cy="6936549"/>
+          <a:off x="-641718" y="-471221"/>
+          <a:ext cx="17037362" cy="10244917"/>
         </xdr:xfrm>
         <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2272,8 +2330,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-19050" y="6545351"/>
-            <a:ext cx="10722182" cy="330832"/>
+            <a:off x="-19050" y="9851869"/>
+            <a:ext cx="16321476" cy="359195"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -2313,7 +2371,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2325,7 +2383,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2335,7 +2393,7 @@
                 <a:cs typeface="+mn-cs"/>
                 <a:sym typeface="Helvetica Neue"/>
               </a:rPr>
-              <a:t>No of Ghosts</a:t>
+              <a:t>Survivability of each Agent while ghosts are invisible in wall cell</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
